--- a/medicine/Pharmacie/Suspension_(pharmacie_galénique)/Suspension_(pharmacie_galénique).xlsx
+++ b/medicine/Pharmacie/Suspension_(pharmacie_galénique)/Suspension_(pharmacie_galénique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Suspension_(pharmacie_gal%C3%A9nique)</t>
+          <t>Suspension_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une suspension est la dispersion d'un solide (poudre) insoluble (ou pratiquement insoluble) et finement divisé dans un milieu liquide. C'est un système hétérogène constitué d'une phase continue externe liquide et d'une phase interne solide dont la taille des particules varie généralement de quelques micromètres à cinquante micromètres.
 En pharmacie galénique, on retrouve ce type de formulation dans des formes galéniques à usage externe (lotions, collyres) et à usage interne (pour voie orale ou parentérale).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Suspension_(pharmacie_gal%C3%A9nique)</t>
+          <t>Suspension_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Avantages
-La stabilité chimique de certains principes actifs est améliorée avec une forme suspension (par rapport à une solution), par exemple avec certains antibiotiques.
+          <t>Avantages</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La stabilité chimique de certains principes actifs est améliorée avec une forme suspension (par rapport à une solution), par exemple avec certains antibiotiques.
 Les suspensions ont généralement moins de goût que les solutions et sont donc plus facile à aromatiser.
-L'absorption du principe actif est généralement plus rapide par rapport à une forme solide (comprimé par exemple).
-Inconvénients
-La biodisponibilité peut être moins bonne qu'une solution en fonction de la classification biopharmaceutique de la substance active
+L'absorption du principe actif est généralement plus rapide par rapport à une forme solide (comprimé par exemple).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suspension_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suspension_(pharmacie_gal%C3%A9nique)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Avantages et inconvénients d'une forme suspension</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Inconvénients</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La biodisponibilité peut être moins bonne qu'une solution en fonction de la classification biopharmaceutique de la substance active
 C'est un type de formulation généralement difficile à réaliser, car les facteurs qui régissent la stabilité physique des suspensions sont nombreux. Il est impossible d'obtenir des particules en suspension indéfiniment, elles sédimentent forcément au bout d'un certain temps : d'où la mention « Agiter avant usage » sur le flacon d'une suspension.
 Le problème majeur réside dans la façon dont le sédiment s'est formé et dans le comportement du sédiment :
 soit le sédiment est cotonneux et occupe une place importante dans le flacon, avec un surnageant limpide : la suspension est dite floculée, elle est utilisable car une légère agitation permet d'obtenir une suspension homogène ;
@@ -527,31 +578,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Suspension_(pharmacie_gal%C3%A9nique)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suspension_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suspension_(pharmacie_gal%C3%A9nique)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Constituants d'une formule de suspension</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Principe(s) actif(s) : chaque principe actif a ses caractéristiques physicochimiques propres (solubilité, pH, point de fusion, état cristallin, sensibilité à la lumière, stabilité, taille des particules, etc.) qui vont guider le choix des autres substances (excipients) constituant la suspension. L'objectif est que la suspension ait une vitesse de sédimentation relativement lente (après agitation, elle doit rester homogène toute la durée du prélèvement). Il faut que le sédiment formé ait un aspect floconneux et qu'il soit facile à remettre en suspension par simple agitation du flacon. Il faut aussi que la forme galénique ait une viscosité relativement faible (elle doit rester suffisamment liquide).
 Phase liquide
@@ -563,31 +616,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Suspension_(pharmacie_gal%C3%A9nique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suspension_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suspension_(pharmacie_gal%C3%A9nique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Niveaux d'intervention des excipients</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les excipients vont moduler différents phénomènes physiques afin d'améliorer la stabilité de la suspension.
 Mouillage des particules
@@ -598,31 +653,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Suspension_(pharmacie_gal%C3%A9nique)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suspension_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suspension_(pharmacie_gal%C3%A9nique)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Mise au point d'une suspension</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le principe est de faire des gammes en ajoutant les excipients un par un.
 On commence par une série de gammes avec le liquide (eau), le principe actif et le tensioactif en concentrations croissantes. On laisse reposer 24 heures, puis on effectue une observation macroscopique de l'échantillon. Si un des points de gamme a un aspect satisfaisant, on gardera la concentration en tensioactif de cet échantillon tout au long de la mise au point
@@ -631,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Suspension_(pharmacie_gal%C3%A9nique)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suspension_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suspension_(pharmacie_gal%C3%A9nique)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Suspensions intégrales de plantes fraiches</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Procédé de fabrication permettant de conserver l'intégralité du totum d'une plante, la suspension intégrale de plantes fraiches (SIPF) est une solution hydro-alcoolique (tirage : 30°) où sont inclus des extraits de plantes vivantes.
 Ne subissant ni filtrage, ni chauffage, les plantes gardent donc la totalité de leur principe actif.
